--- a/public/coopfon/demo/demo.xlsx
+++ b/public/coopfon/demo/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\coopfon\public\coopfon\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C9E53-EDE3-415A-8B24-49874157E5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C0105C-9323-4667-BC67-572FB64985A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F36E764-2675-4579-9C6C-6D4EBBB5A752}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Jorge Eduardo Peralta Guzman</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>birth_date</t>
+  </si>
+  <si>
+    <t>member</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5D950D-EAB5-49F7-BB11-8A35FE4E756C}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,14 +649,15 @@
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -676,22 +680,25 @@
         <v>44</v>
       </c>
       <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -713,23 +720,26 @@
       <c r="G2" s="1">
         <v>14562</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>11001</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -751,23 +761,24 @@
       <c r="G3" s="1">
         <v>15489</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1"/>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13244</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -789,30 +800,32 @@
       <c r="G4" s="1">
         <v>45685</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1"/>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>52473</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -834,23 +847,24 @@
       <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -872,23 +886,24 @@
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -898,19 +913,20 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -920,15 +936,16 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="7"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -942,7 +959,8 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/public/coopfon/demo/demo.xlsx
+++ b/public/coopfon/demo/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\coopfon\public\coopfon\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C0105C-9323-4667-BC67-572FB64985A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3FAF4F-A6A9-4235-9FA3-ECBF0602DA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F36E764-2675-4579-9C6C-6D4EBBB5A752}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Jorge Eduardo Peralta Guzman</t>
   </si>
@@ -184,6 +184,21 @@
   </si>
   <si>
     <t>member</t>
+  </si>
+  <si>
+    <t>Miembro</t>
+  </si>
+  <si>
+    <t>4 Presidente</t>
+  </si>
+  <si>
+    <t>3 Consejero</t>
+  </si>
+  <si>
+    <t>2 Delegado</t>
+  </si>
+  <si>
+    <t>1 Asociada</t>
   </si>
 </sst>
 </file>
@@ -297,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,11 +331,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5D950D-EAB5-49F7-BB11-8A35FE4E756C}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +817,9 @@
       <c r="G4" s="1">
         <v>45685</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4">
         <v>2</v>
       </c>
@@ -823,7 +842,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -847,7 +866,9 @@
       <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
@@ -877,8 +898,8 @@
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>6</v>
@@ -886,7 +907,9 @@
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
@@ -913,7 +936,9 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
@@ -936,7 +961,9 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
@@ -945,22 +972,41 @@
       <c r="L11" s="7"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/public/coopfon/demo/demo.xlsx
+++ b/public/coopfon/demo/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\coopfon\public\coopfon\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCFA64-563C-4F12-832C-98FAC42F2CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7770EBE-F749-452F-9517-4AE3D6BBCFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F36E764-2675-4579-9C6C-6D4EBBB5A752}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1099">
   <si>
     <t>Jorge Eduardo Peralta Guzman</t>
   </si>
@@ -3347,12 +3347,56 @@
   <si>
     <t>1972-02-31</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nota:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  El excel solo debe contener </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoja</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3384,8 +3428,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3395,6 +3454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3473,7 +3538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3500,10 +3565,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3818,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5D950D-EAB5-49F7-BB11-8A35FE4E756C}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,7 +3986,7 @@
       <c r="L2">
         <v>11001</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -3957,7 +4025,7 @@
       <c r="L3">
         <v>13244</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -3998,7 +4066,7 @@
       <c r="L4">
         <v>52473</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -4177,15 +4245,23 @@
       <c r="M13" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>1093</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{829803C5-0B7E-415B-92A8-92F37B645150}"/>
